--- a/BackTest/2020-01-21 BackTest SOC.xlsx
+++ b/BackTest/2020-01-21 BackTest SOC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -814,11 +814,17 @@
         <v>742330.3714304352</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>10.64</v>
+      </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +853,17 @@
         <v>689557.6938304352</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>10.72</v>
+      </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -884,7 +896,11 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -917,7 +933,11 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -950,7 +970,11 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -983,7 +1007,11 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1016,7 +1044,11 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1049,7 +1081,11 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1082,7 +1118,11 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1115,7 +1155,11 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1148,7 +1192,11 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1181,7 +1229,11 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1214,7 +1266,11 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1247,7 +1303,11 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1280,7 +1340,11 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1313,7 +1377,11 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1346,7 +1414,11 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1379,7 +1451,11 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1484,17 @@
         <v>406267.3221961732</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>10.7</v>
+      </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1523,17 @@
         <v>406267.3221961732</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>10.7</v>
+      </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1562,17 @@
         <v>392119.4636961733</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>10.7</v>
+      </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1601,17 @@
         <v>454089.1500961733</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>10.63</v>
+      </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,11 +1640,17 @@
         <v>411789.3269961733</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>10.64</v>
+      </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1573,11 +1679,17 @@
         <v>439518.9008961733</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>10.6</v>
+      </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1606,11 +1718,17 @@
         <v>451960.1097493509</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>10.61</v>
+      </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1639,11 +1757,17 @@
         <v>433243.4804493509</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>10.67</v>
+      </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1796,17 @@
         <v>447047.1701493509</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>10.62</v>
+      </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1705,11 +1835,17 @@
         <v>424808.0924493509</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>10.65</v>
+      </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1738,11 +1874,17 @@
         <v>432505.3604493508</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>10.61</v>
+      </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,11 +1913,17 @@
         <v>438954.2307493509</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>10.65</v>
+      </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1804,11 +1952,17 @@
         <v>431736.6928493509</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>10.66</v>
+      </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1837,11 +1991,17 @@
         <v>425379.9363493508</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>10.61</v>
+      </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1870,11 +2030,17 @@
         <v>435609.7888493508</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>10.6</v>
+      </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1903,11 +2069,17 @@
         <v>423720.0160493508</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>10.67</v>
+      </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1936,11 +2108,17 @@
         <v>432084.9121493509</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>10.61</v>
+      </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1969,11 +2147,17 @@
         <v>425159.2557493509</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>10.67</v>
+      </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2002,11 +2186,17 @@
         <v>433346.1024493509</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>10.61</v>
+      </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2035,11 +2225,17 @@
         <v>508599.1320493509</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>10.64</v>
+      </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2068,11 +2264,17 @@
         <v>499938.3029493509</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>10.66</v>
+      </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2101,11 +2303,17 @@
         <v>530774.8898493509</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>10.62</v>
+      </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2134,11 +2342,17 @@
         <v>509203.1321493509</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>10.65</v>
+      </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2167,11 +2381,17 @@
         <v>356788.5065493509</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>10.61</v>
+      </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2200,11 +2420,17 @@
         <v>371212.7304894258</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>10.58</v>
+      </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2233,7 +2459,7 @@
         <v>346624.5465894258</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>10.61</v>
@@ -2241,7 +2467,7 @@
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L56" t="n">
@@ -2272,7 +2498,7 @@
         <v>323688.797248216</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>10.58</v>
@@ -2311,7 +2537,7 @@
         <v>333301.5930894258</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>10.57</v>
@@ -2350,7 +2576,7 @@
         <v>189556.5439894258</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>10.58</v>
@@ -2389,7 +2615,7 @@
         <v>189556.5439894258</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>10.56</v>
@@ -2428,7 +2654,7 @@
         <v>189556.5439894258</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>10.56</v>
@@ -2467,7 +2693,7 @@
         <v>189556.5439894258</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>10.56</v>
@@ -2506,7 +2732,7 @@
         <v>142479.1100894258</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>10.56</v>
@@ -2545,7 +2771,7 @@
         <v>142479.1100894258</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>10.55</v>
@@ -2584,7 +2810,7 @@
         <v>142479.1100894258</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>10.55</v>
@@ -2623,7 +2849,7 @@
         <v>142479.1100894258</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>10.55</v>
@@ -2662,7 +2888,7 @@
         <v>142479.1100894258</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>10.55</v>
@@ -2701,7 +2927,7 @@
         <v>-96167.72911057418</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>10.55</v>
@@ -2740,7 +2966,7 @@
         <v>-68422.45651057418</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>10.53</v>
@@ -2779,7 +3005,7 @@
         <v>-61168.61761057418</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>10.54</v>
@@ -2818,7 +3044,7 @@
         <v>-67133.59511057417</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>10.55</v>
@@ -2857,7 +3083,7 @@
         <v>-24931.50111057417</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>10.54</v>
@@ -2896,7 +3122,7 @@
         <v>-31659.24651057417</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>10.55</v>
@@ -2935,7 +3161,7 @@
         <v>-31659.24651057417</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>10.54</v>
@@ -2974,7 +3200,7 @@
         <v>-31659.24651057417</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>10.54</v>
@@ -3013,7 +3239,7 @@
         <v>-4622.300310574174</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>10.54</v>
@@ -3052,7 +3278,7 @@
         <v>-35133.42911057417</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>10.74</v>
@@ -3091,7 +3317,7 @@
         <v>-16631.73251057417</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>10.55</v>
@@ -3130,7 +3356,7 @@
         <v>-16631.73251057417</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>10.58</v>
@@ -3169,7 +3395,7 @@
         <v>-55539.51491057417</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>10.58</v>
@@ -3208,7 +3434,7 @@
         <v>-55539.51491057417</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>10.57</v>
@@ -3247,7 +3473,7 @@
         <v>-71183.10091057417</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>10.57</v>
@@ -3286,7 +3512,7 @@
         <v>-71183.10091057417</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>10.56</v>
@@ -3325,7 +3551,7 @@
         <v>-60258.69261057417</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>10.56</v>
@@ -3364,7 +3590,7 @@
         <v>-66834.49851057418</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>10.57</v>
@@ -3403,7 +3629,7 @@
         <v>-36472.91202889335</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>10.56</v>
@@ -3442,7 +3668,7 @@
         <v>-55657.07114522952</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>10.59</v>
@@ -3481,7 +3707,7 @@
         <v>-30470.03254522952</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>10.57</v>
@@ -3520,7 +3746,7 @@
         <v>-30470.03254522952</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>10.58</v>
@@ -3559,7 +3785,7 @@
         <v>-10265.74924522952</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>10.58</v>
@@ -3598,7 +3824,7 @@
         <v>6438.938254770477</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>10.6</v>
@@ -3637,9 +3863,11 @@
         <v>-2145.992845229523</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>10.86</v>
+      </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
@@ -3674,9 +3902,11 @@
         <v>-20038.06724522953</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>10.71</v>
+      </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
@@ -3711,9 +3941,11 @@
         <v>-30995.49074522953</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>10.67</v>
+      </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
@@ -3748,9 +3980,11 @@
         <v>-23035.25864522953</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>10.61</v>
+      </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
@@ -3785,9 +4019,11 @@
         <v>-17030.84724522952</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>10.67</v>
+      </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
@@ -3822,9 +4058,11 @@
         <v>-27517.83014522953</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>10.68</v>
+      </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
@@ -3859,9 +4097,11 @@
         <v>-21322.55654522953</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>10.55</v>
+      </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
@@ -3896,9 +4136,11 @@
         <v>111673.4738547705</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>10.57</v>
+      </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
@@ -3933,9 +4175,11 @@
         <v>92263.62605477046</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>10.6</v>
+      </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
@@ -3970,7 +4214,7 @@
         <v>92263.62605477046</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>10.58</v>
@@ -4009,7 +4253,7 @@
         <v>83020.95785477046</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>10.58</v>
@@ -4048,7 +4292,7 @@
         <v>101520.9389547705</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>10.56</v>
@@ -4087,7 +4331,7 @@
         <v>94465.70015477046</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>10.7</v>
@@ -4126,7 +4370,7 @@
         <v>85513.30385477046</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>10.62</v>
@@ -4165,7 +4409,7 @@
         <v>93460.65325477047</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>10.58</v>
@@ -4204,9 +4448,11 @@
         <v>82921.52455477047</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>10.73</v>
+      </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
@@ -4241,9 +4487,11 @@
         <v>89986.44805477047</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>10.62</v>
+      </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
@@ -4278,9 +4526,11 @@
         <v>78785.51445477047</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>10.77</v>
+      </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
@@ -4315,9 +4565,11 @@
         <v>60458.60585477047</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>10.6</v>
+      </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
@@ -4352,9 +4604,11 @@
         <v>73822.03345477047</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>10.58</v>
+      </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
@@ -4389,9 +4643,11 @@
         <v>63648.44005477047</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>10.59</v>
+      </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
@@ -4426,9 +4682,11 @@
         <v>84395.21205477047</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>10.58</v>
+      </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
@@ -4463,9 +4721,11 @@
         <v>-8084.470745229526</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>10.65</v>
+      </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
@@ -4500,9 +4760,11 @@
         <v>-15380.93164522953</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>10.6</v>
+      </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
@@ -4537,9 +4799,11 @@
         <v>-10310.77514522953</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>10.57</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
@@ -4574,9 +4838,11 @@
         <v>-2244.200045229527</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>10.66</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
@@ -4611,9 +4877,11 @@
         <v>-9465.995545229527</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>10.74</v>
+      </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
@@ -4648,7 +4916,7 @@
         <v>2839.064238103803</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>10.68</v>
@@ -4687,7 +4955,7 @@
         <v>-4333.230861896197</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>10.7</v>
@@ -4726,9 +4994,11 @@
         <v>3965.344538103803</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>10.6</v>
+      </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
@@ -4763,9 +5033,11 @@
         <v>3965.344538103803</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>10.61</v>
+      </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
@@ -4800,9 +5072,11 @@
         <v>11852.5760381038</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>10.61</v>
+      </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
@@ -4837,9 +5111,11 @@
         <v>-7345.053861896198</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>10.66</v>
+      </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
@@ -4874,9 +5150,11 @@
         <v>8864.908338103802</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>10.63</v>
+      </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
@@ -5022,9 +5300,11 @@
         <v>85310.4455381038</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>10.73</v>
+      </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
@@ -5059,9 +5339,11 @@
         <v>78493.52723810379</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>10.75</v>
+      </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
@@ -5096,9 +5378,11 @@
         <v>71576.1186381038</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>10.72</v>
+      </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
@@ -5133,9 +5417,11 @@
         <v>64433.8003381038</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>10.71</v>
+      </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
@@ -5170,9 +5456,11 @@
         <v>70770.72753810381</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>10.63</v>
+      </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
@@ -5207,9 +5495,11 @@
         <v>78528.2185381038</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>10.64</v>
+      </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
@@ -5244,9 +5534,11 @@
         <v>90990.03583810379</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>10.73</v>
+      </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
@@ -5577,9 +5869,11 @@
         <v>57119.62851658246</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>10.61</v>
+      </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
@@ -5762,9 +6056,11 @@
         <v>63480.61032736313</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>10.65</v>
+      </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
@@ -5799,9 +6095,11 @@
         <v>56391.93922736313</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>10.7</v>
+      </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
@@ -5836,9 +6134,11 @@
         <v>66853.45762736312</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>10.66</v>
+      </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
@@ -5873,9 +6173,11 @@
         <v>66853.45762736312</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>10.72</v>
+      </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
@@ -5910,9 +6212,11 @@
         <v>58847.02122736313</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>10.72</v>
+      </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
@@ -5947,9 +6251,11 @@
         <v>53089.41622736312</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>10.69</v>
+      </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
@@ -5984,9 +6290,11 @@
         <v>64197.70369067783</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>10.57</v>
+      </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
@@ -6021,9 +6329,11 @@
         <v>58244.63559067783</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>10.74</v>
+      </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
@@ -6058,9 +6368,11 @@
         <v>65908.35439067784</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>10.62</v>
+      </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
@@ -6095,9 +6407,11 @@
         <v>85730.01512736312</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>10.68</v>
+      </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
@@ -6132,9 +6446,11 @@
         <v>106196.9261381438</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>10.75</v>
+      </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
@@ -6354,9 +6670,11 @@
         <v>141610.3103670726</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>10.75</v>
+      </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
@@ -9166,9 +9484,11 @@
         <v>-648152.0859798469</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>10.62</v>
+      </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
@@ -9203,9 +9523,11 @@
         <v>-667511.6373798469</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>10.78</v>
+      </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
@@ -9240,9 +9562,11 @@
         <v>-657023.5908798468</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>10.63</v>
+      </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
@@ -9277,9 +9601,11 @@
         <v>-670625.7512798469</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>10.65</v>
+      </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
@@ -9314,9 +9640,11 @@
         <v>-662284.2917798469</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>10.64</v>
+      </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
@@ -9351,9 +9679,11 @@
         <v>-671065.2920798468</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>10.76</v>
+      </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
@@ -9388,9 +9718,11 @@
         <v>-671065.2920798468</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>10.65</v>
+      </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
@@ -9425,9 +9757,11 @@
         <v>-661904.7076798468</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>10.65</v>
+      </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
@@ -9462,9 +9796,11 @@
         <v>-654668.9344798467</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>10.77</v>
+      </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
@@ -9499,9 +9835,11 @@
         <v>-654668.9344798467</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>10.81</v>
+      </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
@@ -11201,9 +11539,11 @@
         <v>-1195277.021949109</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>10.65</v>
+      </c>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
@@ -11238,9 +11578,11 @@
         <v>-1188552.686949109</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>10.64</v>
+      </c>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
@@ -11275,9 +11617,11 @@
         <v>-1188552.686949109</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>10.72</v>
+      </c>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
@@ -11312,9 +11656,11 @@
         <v>-1213141.81354911</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>10.72</v>
+      </c>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
@@ -11349,9 +11695,11 @@
         <v>-1197802.480745406</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>10.63</v>
+      </c>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
@@ -11386,9 +11734,11 @@
         <v>-1188623.452145406</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>10.72</v>
+      </c>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
@@ -11423,9 +11773,11 @@
         <v>-1178337.022845406</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>10.73</v>
+      </c>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
@@ -11460,9 +11812,11 @@
         <v>-1165190.004045406</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>10.74</v>
+      </c>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
@@ -11497,9 +11851,11 @@
         <v>-1165190.004045406</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>10.77</v>
+      </c>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
@@ -11534,9 +11890,11 @@
         <v>-1182095.144245406</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>10.77</v>
+      </c>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
@@ -11571,9 +11929,11 @@
         <v>-1175177.258645406</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I306" t="n">
+        <v>10.75</v>
+      </c>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
@@ -11608,9 +11968,11 @@
         <v>-1182042.747345406</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>10.76</v>
+      </c>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
@@ -11645,9 +12007,11 @@
         <v>-1167016.022845406</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>10.65</v>
+      </c>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
@@ -11682,9 +12046,11 @@
         <v>-1180742.154645406</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I309" t="n">
+        <v>10.72</v>
+      </c>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
@@ -11719,9 +12085,11 @@
         <v>-1145942.485545406</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I310" t="n">
+        <v>10.65</v>
+      </c>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
@@ -11756,9 +12124,11 @@
         <v>-1172167.007045406</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I311" t="n">
+        <v>10.7</v>
+      </c>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
@@ -11793,9 +12163,11 @@
         <v>-1165749.504045406</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I312" t="n">
+        <v>10.64</v>
+      </c>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
@@ -11830,9 +12202,11 @@
         <v>-1143178.148545406</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I313" t="n">
+        <v>10.68</v>
+      </c>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
@@ -11867,9 +12241,11 @@
         <v>-1197048.913545406</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I314" t="n">
+        <v>10.73</v>
+      </c>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
@@ -11904,9 +12280,11 @@
         <v>-1187248.349745406</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>10.72</v>
+      </c>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
@@ -11941,9 +12319,11 @@
         <v>-1187248.349745406</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I316" t="n">
+        <v>10.76</v>
+      </c>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
@@ -11978,9 +12358,11 @@
         <v>-1195767.627845406</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I317" t="n">
+        <v>10.76</v>
+      </c>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
@@ -12015,9 +12397,11 @@
         <v>-1160061.241045406</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I318" t="n">
+        <v>10.75</v>
+      </c>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
@@ -12052,9 +12436,11 @@
         <v>-1222486.558245406</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I319" t="n">
+        <v>10.76</v>
+      </c>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
@@ -12089,9 +12475,11 @@
         <v>-1315607.797445406</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I320" t="n">
+        <v>10.7</v>
+      </c>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
@@ -12126,9 +12514,11 @@
         <v>-1247950.605645406</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I321" t="n">
+        <v>10.68</v>
+      </c>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
@@ -12163,9 +12553,11 @@
         <v>-1275890.628645406</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I322" t="n">
+        <v>10.77</v>
+      </c>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
@@ -12200,9 +12592,11 @@
         <v>-1275890.628645406</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I323" t="n">
+        <v>10.68</v>
+      </c>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
@@ -12237,9 +12631,11 @@
         <v>-1213610.728545406</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I324" t="n">
+        <v>10.68</v>
+      </c>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
@@ -12274,9 +12670,11 @@
         <v>-1223458.876345406</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I325" t="n">
+        <v>10.75</v>
+      </c>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
@@ -12311,9 +12709,11 @@
         <v>-1223458.876345406</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I326" t="n">
+        <v>10.71</v>
+      </c>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
@@ -12348,9 +12748,11 @@
         <v>-1261340.783245406</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I327" t="n">
+        <v>10.71</v>
+      </c>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
@@ -12385,9 +12787,11 @@
         <v>-1293125.872045406</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I328" t="n">
+        <v>10.66</v>
+      </c>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
@@ -12422,9 +12826,11 @@
         <v>-1287264.167145406</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I329" t="n">
+        <v>10.65</v>
+      </c>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
@@ -12459,9 +12865,11 @@
         <v>-1298936.082345406</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I330" t="n">
+        <v>10.74</v>
+      </c>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
@@ -12496,9 +12904,11 @@
         <v>-1287613.775445406</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I331" t="n">
+        <v>10.68</v>
+      </c>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
@@ -12533,9 +12943,11 @@
         <v>-1300882.886545406</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I332" t="n">
+        <v>10.71</v>
+      </c>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
@@ -12570,9 +12982,11 @@
         <v>-1293970.866545406</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I333" t="n">
+        <v>10.67</v>
+      </c>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
@@ -12607,9 +13021,11 @@
         <v>-1302875.722745406</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I334" t="n">
+        <v>10.68</v>
+      </c>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
@@ -12644,9 +13060,11 @@
         <v>-1282222.711245406</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I335" t="n">
+        <v>10.65</v>
+      </c>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
@@ -12681,9 +13099,11 @@
         <v>-1314507.065445406</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>10.76</v>
+      </c>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr">
         <is>
@@ -12718,9 +13138,11 @@
         <v>-1343957.703745406</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>10.73</v>
+      </c>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
@@ -12755,9 +13177,11 @@
         <v>-1307854.895345406</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>10.69</v>
+      </c>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>
@@ -12792,9 +13216,11 @@
         <v>-1336218.207445406</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I339" t="n">
+        <v>10.75</v>
+      </c>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
@@ -12829,9 +13255,11 @@
         <v>-1336218.207445406</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>10.67</v>
+      </c>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr">
         <is>
@@ -12866,9 +13294,11 @@
         <v>-1309842.497945406</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I341" t="n">
+        <v>10.67</v>
+      </c>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr">
         <is>
@@ -12903,9 +13333,11 @@
         <v>-1384094.736045406</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I342" t="n">
+        <v>10.72</v>
+      </c>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr">
         <is>
@@ -12940,9 +13372,11 @@
         <v>-1432075.186945406</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I343" t="n">
+        <v>10.68</v>
+      </c>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
@@ -12977,9 +13411,11 @@
         <v>-1415754.400645406</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I344" t="n">
+        <v>10.64</v>
+      </c>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
@@ -13014,9 +13450,11 @@
         <v>-1386019.957445406</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I345" t="n">
+        <v>10.65</v>
+      </c>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr">
         <is>
@@ -13051,9 +13489,11 @@
         <v>-1436447.125645406</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I346" t="n">
+        <v>10.68</v>
+      </c>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
@@ -13088,9 +13528,11 @@
         <v>-1531116.562345406</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I347" t="n">
+        <v>10.66</v>
+      </c>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
@@ -13125,9 +13567,11 @@
         <v>-1592692.466345406</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I348" t="n">
+        <v>10.65</v>
+      </c>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
@@ -13162,9 +13606,11 @@
         <v>-1466704.467545406</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
-      </c>
-      <c r="I349" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I349" t="n">
+        <v>10.64</v>
+      </c>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
@@ -13199,9 +13645,11 @@
         <v>-1514470.440645406</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I350" t="n">
+        <v>10.76</v>
+      </c>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr">
         <is>
@@ -13236,9 +13684,11 @@
         <v>-1535437.163245406</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I351" t="n">
+        <v>10.72</v>
+      </c>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
@@ -13273,9 +13723,11 @@
         <v>-1513740.110345406</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I352" t="n">
+        <v>10.7</v>
+      </c>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr">
         <is>
@@ -13310,9 +13762,11 @@
         <v>-1549511.314945406</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I353" t="n">
+        <v>10.71</v>
+      </c>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr">
         <is>
@@ -13347,9 +13801,11 @@
         <v>-1511302.752645406</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
-      </c>
-      <c r="I354" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I354" t="n">
+        <v>10.66</v>
+      </c>
       <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr">
         <is>
@@ -13384,9 +13840,11 @@
         <v>-1532400.218145406</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I355" t="n">
+        <v>10.71</v>
+      </c>
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr">
         <is>
@@ -13421,9 +13879,11 @@
         <v>-1532400.218145406</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I356" t="n">
+        <v>10.65</v>
+      </c>
       <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr">
         <is>
@@ -13458,9 +13918,11 @@
         <v>-1523059.293145406</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
-      </c>
-      <c r="I357" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I357" t="n">
+        <v>10.65</v>
+      </c>
       <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr">
         <is>
@@ -13495,9 +13957,11 @@
         <v>-1523059.293145406</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I358" t="n">
+        <v>10.66</v>
+      </c>
       <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr">
         <is>
@@ -13532,9 +13996,11 @@
         <v>-1523059.293145406</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I359" t="n">
+        <v>10.66</v>
+      </c>
       <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr">
         <is>
@@ -13569,9 +14035,11 @@
         <v>-1513756.867845406</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
-      </c>
-      <c r="I360" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I360" t="n">
+        <v>10.66</v>
+      </c>
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
@@ -13606,9 +14074,11 @@
         <v>-1541189.300145406</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I361" t="n">
+        <v>10.69</v>
+      </c>
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
@@ -13643,9 +14113,11 @@
         <v>-1525800.036145406</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I362" t="n">
+        <v>10.66</v>
+      </c>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
@@ -13680,9 +14152,11 @@
         <v>-1547708.085445406</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I363" t="n">
+        <v>10.7</v>
+      </c>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
@@ -13717,9 +14191,11 @@
         <v>-1547708.085445406</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I364" t="n">
+        <v>10.69</v>
+      </c>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
@@ -13754,9 +14230,11 @@
         <v>-1564468.763245406</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I365" t="n">
+        <v>10.69</v>
+      </c>
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
         <is>
@@ -13791,9 +14269,11 @@
         <v>-1546010.670745406</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I366" t="n">
+        <v>10.66</v>
+      </c>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
@@ -13828,9 +14308,11 @@
         <v>-1368216.208245406</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
-      </c>
-      <c r="I367" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I367" t="n">
+        <v>10.69</v>
+      </c>
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
@@ -13865,9 +14347,11 @@
         <v>-1376098.648945406</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I368" t="n">
+        <v>10.73</v>
+      </c>
       <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr">
         <is>
@@ -13902,9 +14386,11 @@
         <v>-1376098.648945406</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I369" t="n">
+        <v>10.68</v>
+      </c>
       <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr">
         <is>
@@ -13939,9 +14425,11 @@
         <v>-1355525.232645406</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I370" t="n">
+        <v>10.68</v>
+      </c>
       <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr">
         <is>
@@ -13976,9 +14464,11 @@
         <v>-1376081.860845406</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
-      </c>
-      <c r="I371" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I371" t="n">
+        <v>10.75</v>
+      </c>
       <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr">
         <is>
@@ -14013,9 +14503,11 @@
         <v>-1362717.348445406</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I372" t="n">
+        <v>10.7</v>
+      </c>
       <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr">
         <is>
@@ -14050,9 +14542,11 @@
         <v>-1389694.792245406</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I373" t="n">
+        <v>10.73</v>
+      </c>
       <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr">
         <is>
@@ -14087,9 +14581,11 @@
         <v>-1435015.620045406</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I374" t="n">
+        <v>10.69</v>
+      </c>
       <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr">
         <is>
@@ -14124,9 +14620,11 @@
         <v>-1300024.329845406</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I375" t="n">
+        <v>10.67</v>
+      </c>
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
@@ -14161,9 +14659,11 @@
         <v>-1427623.457845406</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I376" t="n">
+        <v>10.69</v>
+      </c>
       <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr">
         <is>
@@ -14198,9 +14698,11 @@
         <v>-1343303.068745406</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I377" t="n">
+        <v>10.67</v>
+      </c>
       <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr">
         <is>
@@ -14235,9 +14737,11 @@
         <v>-1343303.068745406</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I378" t="n">
+        <v>10.72</v>
+      </c>
       <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr">
         <is>
@@ -14272,9 +14776,11 @@
         <v>-1386216.154145406</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I379" t="n">
+        <v>10.72</v>
+      </c>
       <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
@@ -14309,9 +14815,11 @@
         <v>-1406208.016245406</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
-      </c>
-      <c r="I380" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I380" t="n">
+        <v>10.71</v>
+      </c>
       <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr">
         <is>
@@ -14346,9 +14854,11 @@
         <v>-1195961.112462484</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I381" t="n">
+        <v>10.7</v>
+      </c>
       <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr">
         <is>
@@ -14383,9 +14893,11 @@
         <v>-1213885.373162484</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
-      </c>
-      <c r="I382" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I382" t="n">
+        <v>10.91</v>
+      </c>
       <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr">
         <is>
@@ -16640,9 +17152,11 @@
         <v>3855352.236849032</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
-      </c>
-      <c r="I443" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I443" t="n">
+        <v>11.17</v>
+      </c>
       <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr">
         <is>
@@ -16677,9 +17191,11 @@
         <v>4066240.179849032</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
-      </c>
-      <c r="I444" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I444" t="n">
+        <v>11.38</v>
+      </c>
       <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr">
         <is>
@@ -16714,9 +17230,11 @@
         <v>4017867.724449032</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
-      </c>
-      <c r="I445" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I445" t="n">
+        <v>11.49</v>
+      </c>
       <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr">
         <is>
@@ -16751,9 +17269,11 @@
         <v>3752221.202649033</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
-      </c>
-      <c r="I446" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I446" t="n">
+        <v>11.36</v>
+      </c>
       <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
@@ -16788,9 +17308,11 @@
         <v>3827409.267749033</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
-      </c>
-      <c r="I447" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I447" t="n">
+        <v>11.27</v>
+      </c>
       <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
@@ -16825,9 +17347,11 @@
         <v>3636013.550214598</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
-      </c>
-      <c r="I448" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I448" t="n">
+        <v>11.38</v>
+      </c>
       <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr">
         <is>
@@ -16862,9 +17386,11 @@
         <v>3659511.801914598</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
-      </c>
-      <c r="I449" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I449" t="n">
+        <v>11.37</v>
+      </c>
       <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr">
         <is>
@@ -16899,9 +17425,11 @@
         <v>3765266.681614598</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
-      </c>
-      <c r="I450" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I450" t="n">
+        <v>11.47</v>
+      </c>
       <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr">
         <is>
@@ -17565,9 +18093,11 @@
         <v>3239743.456918309</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
-      </c>
-      <c r="I468" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I468" t="n">
+        <v>11.08</v>
+      </c>
       <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr">
         <is>
@@ -17602,9 +18132,11 @@
         <v>4035646.790518309</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
-      </c>
-      <c r="I469" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I469" t="n">
+        <v>11.06</v>
+      </c>
       <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr">
         <is>
@@ -17639,9 +18171,11 @@
         <v>4017657.322618309</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
-      </c>
-      <c r="I470" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I470" t="n">
+        <v>11.07</v>
+      </c>
       <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr">
         <is>
@@ -17676,9 +18210,11 @@
         <v>4347576.520618309</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
-      </c>
-      <c r="I471" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I471" t="n">
+        <v>10.96</v>
+      </c>
       <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr">
         <is>
@@ -17713,9 +18249,11 @@
         <v>4432401.566618309</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
-      </c>
-      <c r="I472" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I472" t="n">
+        <v>10.99</v>
+      </c>
       <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr">
         <is>
@@ -17750,9 +18288,11 @@
         <v>4249323.141818309</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
-      </c>
-      <c r="I473" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I473" t="n">
+        <v>11.06</v>
+      </c>
       <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr">
         <is>
@@ -17787,9 +18327,11 @@
         <v>4001178.690318309</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
-      </c>
-      <c r="I474" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I474" t="n">
+        <v>10.99</v>
+      </c>
       <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr">
         <is>
@@ -17824,9 +18366,11 @@
         <v>3921962.006518309</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
-      </c>
-      <c r="I475" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I475" t="n">
+        <v>10.91</v>
+      </c>
       <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr">
         <is>
@@ -17861,9 +18405,11 @@
         <v>3375683.183818309</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
-      </c>
-      <c r="I476" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I476" t="n">
+        <v>10.88</v>
+      </c>
       <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr">
         <is>
@@ -17898,9 +18444,11 @@
         <v>3488160.086718309</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
-      </c>
-      <c r="I477" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I477" t="n">
+        <v>10.8</v>
+      </c>
       <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr">
         <is>
@@ -17935,9 +18483,11 @@
         <v>3721529.308718309</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
-      </c>
-      <c r="I478" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I478" t="n">
+        <v>10.85</v>
+      </c>
       <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr">
         <is>
@@ -17972,9 +18522,11 @@
         <v>3812277.935018309</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
-      </c>
-      <c r="I479" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I479" t="n">
+        <v>10.87</v>
+      </c>
       <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr">
         <is>
@@ -18009,9 +18561,11 @@
         <v>3636446.014618309</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
-      </c>
-      <c r="I480" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I480" t="n">
+        <v>10.95</v>
+      </c>
       <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr">
         <is>
@@ -18046,9 +18600,11 @@
         <v>4271852.201118309</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
-      </c>
-      <c r="I481" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I481" t="n">
+        <v>10.72</v>
+      </c>
       <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr">
         <is>
@@ -18083,9 +18639,11 @@
         <v>4223968.118918309</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
-      </c>
-      <c r="I482" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I482" t="n">
+        <v>10.87</v>
+      </c>
       <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr">
         <is>
@@ -44427,16 +44985,18 @@
         <v>447033912.9653005</v>
       </c>
       <c r="H1194" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1194" t="inlineStr"/>
       <c r="J1194" t="inlineStr"/>
       <c r="K1194" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L1194" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L1194" t="n">
+        <v>1</v>
+      </c>
       <c r="M1194" t="inlineStr"/>
     </row>
     <row r="1195">
@@ -44462,11 +45022,15 @@
         <v>446375462.7536883</v>
       </c>
       <c r="H1195" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1195" t="inlineStr"/>
       <c r="J1195" t="inlineStr"/>
-      <c r="K1195" t="inlineStr"/>
+      <c r="K1195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1195" t="n">
         <v>1</v>
       </c>
@@ -44495,11 +45059,15 @@
         <v>447766089.8421886</v>
       </c>
       <c r="H1196" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1196" t="inlineStr"/>
       <c r="J1196" t="inlineStr"/>
-      <c r="K1196" t="inlineStr"/>
+      <c r="K1196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1196" t="n">
         <v>1</v>
       </c>
@@ -44528,11 +45096,15 @@
         <v>444989607.1821856</v>
       </c>
       <c r="H1197" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1197" t="inlineStr"/>
       <c r="J1197" t="inlineStr"/>
-      <c r="K1197" t="inlineStr"/>
+      <c r="K1197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1197" t="n">
         <v>1</v>
       </c>
@@ -44561,11 +45133,15 @@
         <v>444173971.3713856</v>
       </c>
       <c r="H1198" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1198" t="inlineStr"/>
       <c r="J1198" t="inlineStr"/>
-      <c r="K1198" t="inlineStr"/>
+      <c r="K1198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1198" t="n">
         <v>1</v>
       </c>
@@ -44598,7 +45174,11 @@
       </c>
       <c r="I1199" t="inlineStr"/>
       <c r="J1199" t="inlineStr"/>
-      <c r="K1199" t="inlineStr"/>
+      <c r="K1199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1199" t="n">
         <v>1</v>
       </c>
@@ -44631,7 +45211,11 @@
       </c>
       <c r="I1200" t="inlineStr"/>
       <c r="J1200" t="inlineStr"/>
-      <c r="K1200" t="inlineStr"/>
+      <c r="K1200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1200" t="n">
         <v>1</v>
       </c>
@@ -44664,7 +45248,11 @@
       </c>
       <c r="I1201" t="inlineStr"/>
       <c r="J1201" t="inlineStr"/>
-      <c r="K1201" t="inlineStr"/>
+      <c r="K1201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1201" t="n">
         <v>1</v>
       </c>
@@ -44697,7 +45285,11 @@
       </c>
       <c r="I1202" t="inlineStr"/>
       <c r="J1202" t="inlineStr"/>
-      <c r="K1202" t="inlineStr"/>
+      <c r="K1202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1202" t="n">
         <v>1</v>
       </c>
@@ -44730,7 +45322,11 @@
       </c>
       <c r="I1203" t="inlineStr"/>
       <c r="J1203" t="inlineStr"/>
-      <c r="K1203" t="inlineStr"/>
+      <c r="K1203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1203" t="n">
         <v>1</v>
       </c>
@@ -44763,7 +45359,11 @@
       </c>
       <c r="I1204" t="inlineStr"/>
       <c r="J1204" t="inlineStr"/>
-      <c r="K1204" t="inlineStr"/>
+      <c r="K1204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1204" t="n">
         <v>1</v>
       </c>
@@ -44796,7 +45396,11 @@
       </c>
       <c r="I1205" t="inlineStr"/>
       <c r="J1205" t="inlineStr"/>
-      <c r="K1205" t="inlineStr"/>
+      <c r="K1205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1205" t="n">
         <v>1</v>
       </c>
@@ -44829,7 +45433,11 @@
       </c>
       <c r="I1206" t="inlineStr"/>
       <c r="J1206" t="inlineStr"/>
-      <c r="K1206" t="inlineStr"/>
+      <c r="K1206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1206" t="n">
         <v>1</v>
       </c>
@@ -44858,14 +45466,16 @@
         <v>442575982.6740297</v>
       </c>
       <c r="H1207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1207" t="inlineStr"/>
       <c r="J1207" t="inlineStr"/>
-      <c r="K1207" t="inlineStr"/>
-      <c r="L1207" t="n">
-        <v>1</v>
-      </c>
+      <c r="K1207" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L1207" t="inlineStr"/>
       <c r="M1207" t="inlineStr"/>
     </row>
     <row r="1208">
@@ -44957,7 +45567,7 @@
         <v>442015132.1814124</v>
       </c>
       <c r="H1210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1210" t="inlineStr"/>
       <c r="J1210" t="inlineStr"/>
@@ -44990,7 +45600,7 @@
         <v>441446953.2308394</v>
       </c>
       <c r="H1211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1211" t="inlineStr"/>
       <c r="J1211" t="inlineStr"/>
@@ -45023,7 +45633,7 @@
         <v>441660950.6792892</v>
       </c>
       <c r="H1212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1212" t="inlineStr"/>
       <c r="J1212" t="inlineStr"/>
@@ -45056,7 +45666,7 @@
         <v>441560378.5917892</v>
       </c>
       <c r="H1213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1213" t="inlineStr"/>
       <c r="J1213" t="inlineStr"/>
@@ -45089,7 +45699,7 @@
         <v>440925860.4865893</v>
       </c>
       <c r="H1214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1214" t="inlineStr"/>
       <c r="J1214" t="inlineStr"/>
@@ -45122,7 +45732,7 @@
         <v>439672811.2798892</v>
       </c>
       <c r="H1215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1215" t="inlineStr"/>
       <c r="J1215" t="inlineStr"/>
@@ -45155,7 +45765,7 @@
         <v>439193911.2758892</v>
       </c>
       <c r="H1216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1216" t="inlineStr"/>
       <c r="J1216" t="inlineStr"/>
@@ -45188,7 +45798,7 @@
         <v>439316732.8366892</v>
       </c>
       <c r="H1217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1217" t="inlineStr"/>
       <c r="J1217" t="inlineStr"/>
@@ -45221,7 +45831,7 @@
         <v>439316732.8366892</v>
       </c>
       <c r="H1218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1218" t="inlineStr"/>
       <c r="J1218" t="inlineStr"/>
@@ -45254,7 +45864,7 @@
         <v>438308020.3040892</v>
       </c>
       <c r="H1219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1219" t="inlineStr"/>
       <c r="J1219" t="inlineStr"/>
@@ -45287,7 +45897,7 @@
         <v>437583234.4513893</v>
       </c>
       <c r="H1220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1220" t="inlineStr"/>
       <c r="J1220" t="inlineStr"/>
@@ -45749,7 +46359,7 @@
         <v>438264940.346137</v>
       </c>
       <c r="H1234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1234" t="inlineStr"/>
       <c r="J1234" t="inlineStr"/>
@@ -45782,7 +46392,7 @@
         <v>437914126.3340512</v>
       </c>
       <c r="H1235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1235" t="inlineStr"/>
       <c r="J1235" t="inlineStr"/>
@@ -45815,7 +46425,7 @@
         <v>437707796.8666512</v>
       </c>
       <c r="H1236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1236" t="inlineStr"/>
       <c r="J1236" t="inlineStr"/>
@@ -46145,7 +46755,7 @@
         <v>435521704.1793428</v>
       </c>
       <c r="H1246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1246" t="inlineStr"/>
       <c r="J1246" t="inlineStr"/>
@@ -46178,7 +46788,7 @@
         <v>435176290.7108428</v>
       </c>
       <c r="H1247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1247" t="inlineStr"/>
       <c r="J1247" t="inlineStr"/>
@@ -46211,7 +46821,7 @@
         <v>434925042.4156428</v>
       </c>
       <c r="H1248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1248" t="inlineStr"/>
       <c r="J1248" t="inlineStr"/>
@@ -46244,7 +46854,7 @@
         <v>434833325.0906428</v>
       </c>
       <c r="H1249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1249" t="inlineStr"/>
       <c r="J1249" t="inlineStr"/>
@@ -46277,7 +46887,7 @@
         <v>435099912.6808428</v>
       </c>
       <c r="H1250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1250" t="inlineStr"/>
       <c r="J1250" t="inlineStr"/>
@@ -46310,7 +46920,7 @@
         <v>435004774.9499428</v>
       </c>
       <c r="H1251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1251" t="inlineStr"/>
       <c r="J1251" t="inlineStr"/>
@@ -46343,7 +46953,7 @@
         <v>435162962.5940428</v>
       </c>
       <c r="H1252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1252" t="inlineStr"/>
       <c r="J1252" t="inlineStr"/>
@@ -46376,7 +46986,7 @@
         <v>435609436.8573428</v>
       </c>
       <c r="H1253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1253" t="inlineStr"/>
       <c r="J1253" t="inlineStr"/>
@@ -46409,7 +47019,7 @@
         <v>434915702.8431429</v>
       </c>
       <c r="H1254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1254" t="inlineStr"/>
       <c r="J1254" t="inlineStr"/>
@@ -46442,7 +47052,7 @@
         <v>434295700.4769429</v>
       </c>
       <c r="H1255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1255" t="inlineStr"/>
       <c r="J1255" t="inlineStr"/>
@@ -46475,7 +47085,7 @@
         <v>433525183.3341429</v>
       </c>
       <c r="H1256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1256" t="inlineStr"/>
       <c r="J1256" t="inlineStr"/>
@@ -46508,7 +47118,7 @@
         <v>433525183.3341429</v>
       </c>
       <c r="H1257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1257" t="inlineStr"/>
       <c r="J1257" t="inlineStr"/>
@@ -46541,7 +47151,7 @@
         <v>433525183.3341429</v>
       </c>
       <c r="H1258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1258" t="inlineStr"/>
       <c r="J1258" t="inlineStr"/>
@@ -46574,7 +47184,7 @@
         <v>433729817.615367</v>
       </c>
       <c r="H1259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1259" t="inlineStr"/>
       <c r="J1259" t="inlineStr"/>
@@ -46607,7 +47217,7 @@
         <v>434100379.4690599</v>
       </c>
       <c r="H1260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1260" t="inlineStr"/>
       <c r="J1260" t="inlineStr"/>
@@ -46640,7 +47250,7 @@
         <v>434002081.0234844</v>
       </c>
       <c r="H1261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1261" t="inlineStr"/>
       <c r="J1261" t="inlineStr"/>
@@ -46706,7 +47316,7 @@
         <v>433641589.7105131</v>
       </c>
       <c r="H1263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1263" t="inlineStr"/>
       <c r="J1263" t="inlineStr"/>
@@ -46739,7 +47349,7 @@
         <v>433470632.3599131</v>
       </c>
       <c r="H1264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1264" t="inlineStr"/>
       <c r="J1264" t="inlineStr"/>
@@ -46772,7 +47382,7 @@
         <v>432934735.6243131</v>
       </c>
       <c r="H1265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1265" t="inlineStr"/>
       <c r="J1265" t="inlineStr"/>
@@ -46805,7 +47415,7 @@
         <v>432580696.6078131</v>
       </c>
       <c r="H1266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1266" t="inlineStr"/>
       <c r="J1266" t="inlineStr"/>
@@ -46838,7 +47448,7 @@
         <v>433400392.030413</v>
       </c>
       <c r="H1267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1267" t="inlineStr"/>
       <c r="J1267" t="inlineStr"/>
@@ -48004,6 +48614,6 @@
       <c r="M1302" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>